--- a/config/tisar/patch.xlsx
+++ b/config/tisar/patch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Item</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>v_in_peak</t>
+  </si>
+  <si>
+    <t>F_clk</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>100000000</v>
+        <v>99000000</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -446,15 +449,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>800000000</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>

--- a/config/tisar/patch.xlsx
+++ b/config/tisar/patch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Item</t>
   </si>
@@ -25,13 +25,7 @@
     <t>TI</t>
   </si>
   <si>
-    <t>F_in_center_1</t>
-  </si>
-  <si>
-    <t>v_in_peak</t>
-  </si>
-  <si>
-    <t>F_clk</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -82,12 +76,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -404,11 +401,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -434,34 +431,28 @@
       <c r="E2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>99000000</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.85</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>800000000</v>
-      </c>
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>

--- a/config/tisar/patch.xlsx
+++ b/config/tisar/patch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Item</t>
   </si>
@@ -25,7 +25,7 @@
     <t>TI</t>
   </si>
   <si>
-    <t/>
+    <t>F_in_center_1</t>
   </si>
 </sst>
 </file>
@@ -76,15 +76,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -401,11 +398,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -431,27 +428,25 @@
       <c r="E2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>170000000</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
